--- a/boot_serial版本记录.xlsx
+++ b/boot_serial版本记录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0-work\TM4C-boot\Boot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscodegit\TM4Cbootloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC59155-12F4-474F-97A0-5571A8250D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D43E50-C9BC-43D8-92FB-5E4123C5A8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boot_serial220712</t>
-  </si>
-  <si>
     <t>完成自测初始版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot_serialV001B000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot_serialV001B001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改协议格式；
+2、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,9 +124,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -128,6 +135,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,157 +422,161 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
-        <v>44750</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4">
-        <v>44750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
